--- a/resources/GSEA1/Notes_ApresRats.xlsx
+++ b/resources/GSEA1/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSEA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C7543-5A45-4C26-9AE3-311956C292FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63502F4E-4E4E-4208-922A-8ED657BFB585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>CNE</t>
   </si>
@@ -79,64 +79,304 @@
     <t>Note_GSEA26</t>
   </si>
   <si>
-    <t>Gsea1_FN1</t>
-  </si>
-  <si>
-    <t>Gsea1_LN1</t>
-  </si>
-  <si>
-    <t>Gsea1_FN2</t>
-  </si>
-  <si>
-    <t>Gsea1_LN2</t>
-  </si>
-  <si>
-    <t>Gsea1_FN3</t>
-  </si>
-  <si>
-    <t>Gsea1_LN3</t>
-  </si>
-  <si>
-    <t>Gsea1_FN4</t>
-  </si>
-  <si>
-    <t>Gsea1_LN4</t>
-  </si>
-  <si>
-    <t>Gsea1_FN5</t>
-  </si>
-  <si>
-    <t>Gsea1_LN5</t>
-  </si>
-  <si>
-    <t>Gsea1_FN6</t>
-  </si>
-  <si>
-    <t>Gsea1_LN6</t>
-  </si>
-  <si>
-    <t>Gsea1_FN7</t>
-  </si>
-  <si>
-    <t>Gsea1_LN7</t>
-  </si>
-  <si>
-    <t>Gsea1_FN8</t>
-  </si>
-  <si>
-    <t>Gsea1_LN8</t>
-  </si>
-  <si>
-    <t>Gsea1_FN9</t>
-  </si>
-  <si>
-    <t>Gsea1_LN9</t>
-  </si>
-  <si>
-    <t>Gsea1_FN10</t>
-  </si>
-  <si>
-    <t>Gsea1_LN10</t>
+    <t>Jamalia</t>
+  </si>
+  <si>
+    <t>Nola Ballard</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Xyla Berry</t>
+  </si>
+  <si>
+    <t>Tamekah</t>
+  </si>
+  <si>
+    <t>Neve Yates</t>
+  </si>
+  <si>
+    <t>Iola</t>
+  </si>
+  <si>
+    <t>Josiah Aguirre</t>
+  </si>
+  <si>
+    <t>McKenzie</t>
+  </si>
+  <si>
+    <t>Xenos Curtis</t>
+  </si>
+  <si>
+    <t>Regan</t>
+  </si>
+  <si>
+    <t>Myles Sloan</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Harlan Ware</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Uta Keller</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
+    <t>Athena Bird</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>David Espinoza</t>
+  </si>
+  <si>
+    <t>Gail</t>
+  </si>
+  <si>
+    <t>Tanisha Crane</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Kirby Fulton</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Trevor Jensen</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Barbara Richmond</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Hedy Luna</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Cailin O'connor</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Hyacinth Mckee</t>
+  </si>
+  <si>
+    <t>Freya</t>
+  </si>
+  <si>
+    <t>Hector Pugh</t>
+  </si>
+  <si>
+    <t>Ignatius</t>
+  </si>
+  <si>
+    <t>Hanae Head</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Owen Atkins</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Grant Berry</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Noelle King</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Lester Valentine</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Katelyn Nelson</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Abel Allison</t>
+  </si>
+  <si>
+    <t>Idola</t>
+  </si>
+  <si>
+    <t>Kylie Hodges</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Amber Maxwell</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Raphael Stephens</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Britanney Kemp</t>
+  </si>
+  <si>
+    <t>Barclay</t>
+  </si>
+  <si>
+    <t>Teagan Sullivan</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Noble Hamilton</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Xavier Knight</t>
+  </si>
+  <si>
+    <t>Avram</t>
+  </si>
+  <si>
+    <t>Kellie Vega</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Eliana Daniel</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Katell Burch</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Jorden Macias</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Lawrence Carver</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Jerome Bailey</t>
+  </si>
+  <si>
+    <t>Janna</t>
+  </si>
+  <si>
+    <t>Merrill Mcintyre</t>
+  </si>
+  <si>
+    <t>Oren</t>
+  </si>
+  <si>
+    <t>Amena Delaney</t>
+  </si>
+  <si>
+    <t>Mariko</t>
+  </si>
+  <si>
+    <t>Naomi Rhodes</t>
+  </si>
+  <si>
+    <t>Oprah</t>
+  </si>
+  <si>
+    <t>Jesse Dorsey</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Lee Sutton</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>Dalton Bowers</t>
+  </si>
+  <si>
+    <t>Tarik</t>
+  </si>
+  <si>
+    <t>Astra Rojas</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Gabriel Nichols</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Tyler Branch</t>
+  </si>
+  <si>
+    <t>Akeem</t>
+  </si>
+  <si>
+    <t>Tamekah Guthrie</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jared Mcmahon</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Alden Velasquez</t>
   </si>
 </sst>
 </file>
@@ -496,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6ACE8C-323D-4925-8C4C-1DD22A6AA664}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,13 +748,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -556,46 +796,46 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>19000021</v>
+        <v>19000101</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2">
         <v>12</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -603,425 +843,2305 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>19000022</v>
+        <v>19000102</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>12</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>19000023</v>
+        <v>19000103</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>19000024</v>
+        <v>19000104</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>18</v>
       </c>
       <c r="O5">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>19000025</v>
+        <v>19000105</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>12</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O6">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>19000026</v>
+        <v>19000106</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>14</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>19000027</v>
+        <v>19000107</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
         <v>19</v>
       </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
       <c r="K8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>19000028</v>
+        <v>19000108</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>13</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>15</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>12</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>19000029</v>
+        <v>19000109</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>19000030</v>
+        <v>19000110</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>19000111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>19000112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="O13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>19000113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>19000114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>19000115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>19000116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>19000117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>19000118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19000119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19000120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>19000121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>19000122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
+      </c>
+      <c r="O23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>19000123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>19000124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+      <c r="O25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>19000125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>19000126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>19000127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>19000128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>19000129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>19000130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>19000131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>19000132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>19000133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>19000134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
         <v>20</v>
       </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>16</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
         <v>19</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>19000135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>19000136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>13</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>19000137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>19000138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>16</v>
+      </c>
+      <c r="O39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19000139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>10</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>19000140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <v>12</v>
+      </c>
+      <c r="O41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>19000141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>13</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>19000142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>19000143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="O44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>19000144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>19</v>
+      </c>
+      <c r="O45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>19000145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>17</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46">
+        <v>17</v>
+      </c>
+      <c r="O46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>19000146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>12</v>
+      </c>
+      <c r="M47">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>18</v>
+      </c>
+      <c r="O47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>19000147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>19000148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>16</v>
+      </c>
+      <c r="I49">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+      <c r="M49">
+        <v>16</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>19000149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>19000150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>17</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>13</v>
+      </c>
+      <c r="N51">
+        <v>16</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
